--- a/section2/AdamKlima_ExcelHomework.xlsx
+++ b/section2/AdamKlima_ExcelHomework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamr\Code\SavvyCoders\Homework\section2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEECB9C-0410-4341-9EF7-CCEC55DB2F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30236761-AC36-443F-9713-7121CD071B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{322C498E-984E-4800-B4BC-68933C056971}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{322C498E-984E-4800-B4BC-68933C056971}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="3" r:id="rId1"/>
@@ -201,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +226,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -665,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -707,8 +719,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,13 +740,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -939,6 +952,47 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BALANCE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> AND </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MONTHLY PAYMENT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -970,11 +1024,178 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10893613762470675"/>
+          <c:y val="0.10394797690226844"/>
+          <c:w val="0.86286963631743174"/>
+          <c:h val="0.68597102111730535"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card Debt'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Credit Card Debt'!$A$2:$A$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Credit Card Debt'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Credit Card Debt'!$B$2:$B$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Credit Card Debt'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9E7-46C0-A0F5-35755973483A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
@@ -1008,6 +1229,63 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -1076,29 +1354,29 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
         <c:axId val="533804432"/>
         <c:axId val="533801552"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="1"/>
+                <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debt'!$B$1</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1110,10 +1388,10 @@
                 <c:spPr>
                   <a:pattFill prst="narHorz">
                     <a:fgClr>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="accent2"/>
                     </a:fgClr>
                     <a:bgClr>
-                      <a:schemeClr val="accent1">
+                      <a:schemeClr val="accent2">
                         <a:lumMod val="20000"/>
                         <a:lumOff val="80000"/>
                       </a:schemeClr>
@@ -1124,11 +1402,68 @@
                   </a:ln>
                   <a:effectLst>
                     <a:innerShdw blurRad="114300">
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="accent2"/>
                     </a:innerShdw>
                   </a:effectLst>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
@@ -1166,118 +1501,6 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'Credit Card Debt'!$B$2:$B$7</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debt'!$B$3:$B$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>"$"#,##0.00</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>450</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>975</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>780</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-A9E7-46C0-A0F5-35755973483A}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debt'!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:pattFill prst="narHorz">
-                    <a:fgClr>
-                      <a:schemeClr val="accent2"/>
-                    </a:fgClr>
-                    <a:bgClr>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="20000"/>
-                        <a:lumOff val="80000"/>
-                      </a:schemeClr>
-                    </a:bgClr>
-                  </a:pattFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst>
-                    <a:innerShdw blurRad="114300">
-                      <a:schemeClr val="accent2"/>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'Credit Card Debt'!$A$2:$A$7</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debt'!$A$3:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Discover</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Capital One</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Citi Card</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Target</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Wal-Mart</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
                           <c15:sqref>'Credit Card Debt'!$C$2:$C$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
@@ -1306,7 +1529,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-A9E7-46C0-A0F5-35755973483A}"/>
                   </c:ext>
@@ -1353,6 +1576,63 @@
                   </a:effectLst>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
@@ -1465,6 +1745,63 @@
                   </a:effectLst>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
@@ -1577,6 +1914,63 @@
                   </a:effectLst>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
@@ -1658,7 +2052,37 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1709,7 +2133,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
@@ -1723,6 +2147,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>$</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.52926571844301951"/>
+              <c:y val="0.80131329548770724"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1758,6 +2245,44 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1766,8 +2291,689 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22259596003538229"/>
+          <c:y val="2.136916077657805E-2"/>
+          <c:w val="0.66999243738600467"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sum of Monthly Payment</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Capital One</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Citi Card</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Discover</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Target</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Wal-Mart</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>187.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>412.75</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>806.66666666666663</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>575</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>325</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B28-4163-85EA-2C411F740546}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="1241098032"/>
+        <c:axId val="1241080752"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Sum of Balance</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:pattFill prst="narHorz">
+                    <a:fgClr>
+                      <a:schemeClr val="accent1"/>
+                    </a:fgClr>
+                    <a:bgClr>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="20000"/>
+                        <a:lumOff val="80000"/>
+                      </a:schemeClr>
+                    </a:bgClr>
+                  </a:pattFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:innerShdw blurRad="114300">
+                      <a:schemeClr val="accent1"/>
+                    </a:innerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strLit>
+                    <c:ptCount val="5"/>
+                    <c:pt idx="0">
+                      <c:v>Capital One</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>Citi Card</c:v>
+                    </c:pt>
+                    <c:pt idx="2">
+                      <c:v>Discover</c:v>
+                    </c:pt>
+                    <c:pt idx="3">
+                      <c:v>Target</c:v>
+                    </c:pt>
+                    <c:pt idx="4">
+                      <c:v>Wal-Mart</c:v>
+                    </c:pt>
+                  </c:strLit>
+                </c:cat>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="5"/>
+                    <c:pt idx="0">
+                      <c:v>450</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>975</c:v>
+                    </c:pt>
+                    <c:pt idx="2">
+                      <c:v>2000</c:v>
+                    </c:pt>
+                    <c:pt idx="3">
+                      <c:v>1500</c:v>
+                    </c:pt>
+                    <c:pt idx="4">
+                      <c:v>780</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7B28-4163-85EA-2C411F740546}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1241098032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1241080752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1241080752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>$</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1241098032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1843,6 +3049,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="299">
   <cs:axisTitle>
@@ -2375,20 +3618,539 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>838201</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2408,6 +4170,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD602B03-3DDF-217E-5890-3A2865C87BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2750,18 +4548,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
@@ -3024,7 +4822,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,24 +4834,27 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="40" t="s">
@@ -3068,7 +4869,7 @@
       <c r="F2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3093,7 +4894,7 @@
         <f>SUM(B3,E3)</f>
         <v>2420</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <f t="shared" ref="G3:G7" si="1">(F3/D3)</f>
         <v>806.66666666666663</v>
       </c>
